--- a/9 ML Sklearn/4z2_normalisasi.xlsx
+++ b/9 ML Sklearn/4z2_normalisasi.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz coding\Python_DataScience_Basic\9 ML Sklearn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Python_Fundamental_DataScience\9 ML Sklearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF5D723-6F59-4D86-987D-CFDC04CC8114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -107,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +235,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -516,35 +528,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="4.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -564,7 +576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>169.6</v>
       </c>
@@ -588,7 +600,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>166.8</v>
       </c>
@@ -612,7 +624,7 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>157.1</v>
       </c>
@@ -636,7 +648,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>181.1</v>
       </c>
@@ -660,7 +672,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>158.4</v>
       </c>
@@ -684,7 +696,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>165.6</v>
       </c>
@@ -708,7 +720,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>166.7</v>
       </c>
@@ -732,7 +744,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>156.5</v>
       </c>
@@ -756,7 +768,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>168.1</v>
       </c>
@@ -780,7 +792,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>165.3</v>
       </c>
@@ -804,7 +816,7 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,7 +824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
@@ -820,7 +832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>2</v>
       </c>
@@ -828,7 +840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
